--- a/ExcelFile.xlsx
+++ b/ExcelFile.xlsx
@@ -11,12 +11,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>rate</t>
+  </si>
+  <si>
+    <t>0.036654010000</t>
+  </si>
+  <si>
+    <t>34921.088000000000</t>
+  </si>
+  <si>
+    <t>0.361094850000</t>
+  </si>
+  <si>
+    <t>34891.917000000000</t>
+  </si>
+  <si>
+    <t>0.143418210000</t>
+  </si>
+  <si>
+    <t>34863.074000000000</t>
+  </si>
+  <si>
+    <t>0.000200840000</t>
+  </si>
+  <si>
+    <t>34800.000000000000</t>
+  </si>
+  <si>
+    <t>0.002000000000</t>
+  </si>
+  <si>
+    <t>34788.527000000000</t>
+  </si>
+  <si>
+    <t>0.001720170000</t>
+  </si>
+  <si>
+    <t>34728.000000000000</t>
+  </si>
+  <si>
+    <t>0.429759840000</t>
+  </si>
+  <si>
+    <t>34707.251000000000</t>
+  </si>
+  <si>
+    <t>0.000201420000</t>
+  </si>
+  <si>
+    <t>34700.000000000000</t>
+  </si>
+  <si>
+    <t>0.000461460000</t>
+  </si>
+  <si>
+    <t>34663.760000000000</t>
+  </si>
+  <si>
+    <t>0.006000000000</t>
+  </si>
+  <si>
+    <t>34649.800000000000</t>
+  </si>
+  <si>
+    <t>0.000199560000</t>
+  </si>
+  <si>
+    <t>34648.204000000000</t>
+  </si>
+  <si>
+    <t>34628.000000000000</t>
+  </si>
+  <si>
+    <t>34621.418000000000</t>
+  </si>
+  <si>
+    <t>0.000286750000</t>
+  </si>
+  <si>
+    <t>34609.832000000000</t>
+  </si>
+  <si>
+    <t>34608.200000000000</t>
+  </si>
+  <si>
+    <t>0.000951380000</t>
+  </si>
+  <si>
+    <t>34602.912000000000</t>
+  </si>
+  <si>
+    <t>0.000502000000</t>
+  </si>
+  <si>
+    <t>34600.000000000000</t>
+  </si>
+  <si>
+    <t>0.000153820000</t>
+  </si>
+  <si>
+    <t>34516.347000000000</t>
+  </si>
+  <si>
+    <t>0.073376440000</t>
+  </si>
+  <si>
+    <t>34500.000000000000</t>
+  </si>
+  <si>
+    <t>34463.760000000000</t>
+  </si>
+  <si>
+    <t>0.000300000000</t>
+  </si>
+  <si>
+    <t>34454.000000000000</t>
+  </si>
+  <si>
+    <t>0.001300000000</t>
+  </si>
+  <si>
+    <t>34432.278000000000</t>
+  </si>
+  <si>
+    <t>0.014766240000</t>
+  </si>
+  <si>
+    <t>34415.011000000000</t>
+  </si>
+  <si>
+    <t>0.000203180000</t>
+  </si>
+  <si>
+    <t>34400.000000000000</t>
+  </si>
+  <si>
+    <t>0.000610940000</t>
+  </si>
+  <si>
+    <t>34355.432000000000</t>
   </si>
 </sst>
 </file>
@@ -62,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -76,6 +214,206 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
